--- a/Doc/HRMS_Story_Mapping.xlsx
+++ b/Doc/HRMS_Story_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimal Mathew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimal\Documents\MCA\Semester 4\MCA Main Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4C3AA-285F-4384-BEFF-987FDF62105B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A39119-F601-428A-B241-B45D65D04140}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Employee Management		</t>
   </si>
@@ -85,12 +85,6 @@
     <t xml:space="preserve">Appraisal Management		</t>
   </si>
   <si>
-    <t xml:space="preserve">	Initiate	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Employees initiate appraisal</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Evaluate/Forward	</t>
   </si>
   <si>
@@ -134,13 +128,58 @@
   </si>
   <si>
     <t xml:space="preserve">		Automatically generate the salary with tax</t>
+  </si>
+  <si>
+    <t>FEATURES</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>SUB FEATURES</t>
+  </si>
+  <si>
+    <t>Initiate appraisal through appraisal form</t>
+  </si>
+  <si>
+    <t>Employee must fill the appraisal form and perform initiation button</t>
+  </si>
+  <si>
+    <t>BREAK DOWN INTO STORIES</t>
+  </si>
+  <si>
+    <t>USER STORY</t>
+  </si>
+  <si>
+    <t>Human Resource Management System</t>
+  </si>
+  <si>
+    <t>Accept Username and Password</t>
+  </si>
+  <si>
+    <t>Cancel functionality is for clearing the form</t>
+  </si>
+  <si>
+    <t>Verify and login into the application</t>
+  </si>
+  <si>
+    <t>Accept the required data from the user</t>
+  </si>
+  <si>
+    <t>Submit and register the new user</t>
+  </si>
+  <si>
+    <t>Admin can view list of any employee and update as necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change and reset the password </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +312,14 @@
       <color theme="0"/>
       <name val="Kartika"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Kartika"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -617,8 +664,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,210 +1031,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
+      <c r="D24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+      <c r="D31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
+      <c r="D34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="D40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
+      <c r="D42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
+      <c r="D43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/HRMS_Story_Mapping.xlsx
+++ b/Doc/HRMS_Story_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimal\Documents\MCA\Semester 4\MCA Main Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A39119-F601-428A-B241-B45D65D04140}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AA52A9-671A-4C8B-8CF0-EA8E46AAF127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My First Board" sheetId="1" r:id="rId1"/>
@@ -67,39 +67,24 @@
     <t xml:space="preserve">	Apply	</t>
   </si>
   <si>
-    <t xml:space="preserve">		Apply for leave</t>
-  </si>
-  <si>
     <t xml:space="preserve">	View/Edit	</t>
   </si>
   <si>
-    <t xml:space="preserve">		Both employee and HR can view/update</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Approve/Forward	</t>
   </si>
   <si>
-    <t xml:space="preserve">		PM/HR approve leaves</t>
-  </si>
-  <si>
     <t xml:space="preserve">Appraisal Management		</t>
   </si>
   <si>
     <t xml:space="preserve">	Evaluate/Forward	</t>
   </si>
   <si>
-    <t xml:space="preserve">		PM performs evaluation and forward to HR</t>
-  </si>
-  <si>
     <t xml:space="preserve">		HR performs final evaluation and approve</t>
   </si>
   <si>
     <t xml:space="preserve">	Approve/Generate Rating	</t>
   </si>
   <si>
-    <t xml:space="preserve">		PM/HR generates rating for employee</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Accept/Reject	</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t xml:space="preserve">	Generate Payslip	</t>
   </si>
   <si>
-    <t xml:space="preserve">		Automatically generate the salary with tax</t>
-  </si>
-  <si>
     <t>FEATURES</t>
   </si>
   <si>
@@ -142,18 +124,9 @@
     <t>Initiate appraisal through appraisal form</t>
   </si>
   <si>
-    <t>Employee must fill the appraisal form and perform initiation button</t>
-  </si>
-  <si>
     <t>BREAK DOWN INTO STORIES</t>
   </si>
   <si>
-    <t>USER STORY</t>
-  </si>
-  <si>
-    <t>Human Resource Management System</t>
-  </si>
-  <si>
     <t>Accept Username and Password</t>
   </si>
   <si>
@@ -173,13 +146,41 @@
   </si>
   <si>
     <t xml:space="preserve">Change and reset the password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR can view the attendance details of employee by searching. Employee can see his own attendance detail </t>
+  </si>
+  <si>
+    <t>Employee can apply for leave.Leave request will be sent to the HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Both employee and HR can view/update the leave request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		PM/HR approve leaves and update the timesheet as well.</t>
+  </si>
+  <si>
+    <t>Employee must fill the appraisal form and perform initiation by clicking initiate button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		PM performs evaluation by entering his remarks and ratings.Then 
+forward to HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		PM/HR generates final rating for employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Automatically generate the salary with PF and tax</t>
+  </si>
+  <si>
+    <t>Human Resource Management System (HRMS) Software For Organizations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +323,23 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Kartika"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Kartika"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +517,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,18 +692,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,247 +1061,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D43"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:7" ht="27" x14ac:dyDescent="0.6">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="35" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/HRMS_Story_Mapping.xlsx
+++ b/Doc/HRMS_Story_Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimal\Documents\MCA\Semester 4\MCA Main Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AA52A9-671A-4C8B-8CF0-EA8E46AAF127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D147906-7FBB-4728-ABDB-5465F028779C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Employee Management		</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">	Sign In	</t>
   </si>
   <si>
-    <t xml:space="preserve">	Sign Up	</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Viewing/Update	</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t xml:space="preserve">		Attendance will be marked automatically and leave will be calculated</t>
   </si>
   <si>
-    <t xml:space="preserve">	Viewing	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Updating/Deleting	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		HR can update/delete attendance details upon request from Employee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leave Management		</t>
   </si>
   <si>
@@ -73,42 +61,15 @@
     <t xml:space="preserve">	Approve/Forward	</t>
   </si>
   <si>
-    <t xml:space="preserve">Appraisal Management		</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Evaluate/Forward	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		HR performs final evaluation and approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Approve/Generate Rating	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Accept/Reject	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Employee accept/reject the rating</t>
-  </si>
-  <si>
     <t xml:space="preserve">Payroll Management		</t>
   </si>
   <si>
     <t xml:space="preserve">	Base Pay Setting/Updating	</t>
   </si>
   <si>
-    <t xml:space="preserve">		Admin set the base salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Admin updates the salary according to rating/experience of employee</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Calculate salary	</t>
   </si>
   <si>
-    <t xml:space="preserve">		Automatically calculate salary based on type and experience of employee</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Generate Payslip	</t>
   </si>
   <si>
@@ -121,24 +82,15 @@
     <t>SUB FEATURES</t>
   </si>
   <si>
-    <t>Initiate appraisal through appraisal form</t>
-  </si>
-  <si>
     <t>BREAK DOWN INTO STORIES</t>
   </si>
   <si>
     <t>Accept Username and Password</t>
   </si>
   <si>
-    <t>Cancel functionality is for clearing the form</t>
-  </si>
-  <si>
     <t>Verify and login into the application</t>
   </si>
   <si>
-    <t>Accept the required data from the user</t>
-  </si>
-  <si>
     <t>Submit and register the new user</t>
   </si>
   <si>
@@ -148,32 +100,70 @@
     <t xml:space="preserve">Change and reset the password </t>
   </si>
   <si>
-    <t xml:space="preserve">HR can view the attendance details of employee by searching. Employee can see his own attendance detail </t>
-  </si>
-  <si>
-    <t>Employee can apply for leave.Leave request will be sent to the HR</t>
-  </si>
-  <si>
     <t xml:space="preserve">		Both employee and HR can view/update the leave request.</t>
   </si>
   <si>
-    <t xml:space="preserve">		PM/HR approve leaves and update the timesheet as well.</t>
-  </si>
-  <si>
-    <t>Employee must fill the appraisal form and perform initiation by clicking initiate button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		PM performs evaluation by entering his remarks and ratings.Then 
-forward to HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		PM/HR generates final rating for employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		Automatically generate the salary with PF and tax</t>
-  </si>
-  <si>
     <t>Human Resource Management System (HRMS) Software For Organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management		</t>
+  </si>
+  <si>
+    <t>Create New Project</t>
+  </si>
+  <si>
+    <t>Only admin can create new projects with appropriate details</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Everyone will be able to view the number of projects and members in that</t>
+  </si>
+  <si>
+    <t>Allocate or Deallocate</t>
+  </si>
+  <si>
+    <t>Admin/HR can either allocate or deallocate employees</t>
+  </si>
+  <si>
+    <t>Update status</t>
+  </si>
+  <si>
+    <t>Once complete admin can update status to completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Automatically calculate salary .</t>
+  </si>
+  <si>
+    <t>Only admin can create employees</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Accept the required data from the user and fill in the form</t>
+  </si>
+  <si>
+    <t>During payroll leave will be used</t>
+  </si>
+  <si>
+    <t>Employee can apply for leave.Leave request will be sent to the HR/Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		PM/HR approve leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Admin set the base salary based on designation of employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Admin updates the salary based on designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Automatically generate the PDF when needed</t>
   </si>
 </sst>
 </file>
@@ -698,14 +688,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -1078,13 +1068,13 @@
   <sheetData>
     <row r="2" spans="2:7" ht="27" x14ac:dyDescent="0.6">
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
@@ -1094,28 +1084,28 @@
       <c r="C4" s="2"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8">
@@ -1128,194 +1118,183 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E25" t="s">
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E45" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E31" t="s">
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="G50" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
